--- a/data/retrieved/visualisation_sentiments_results.xlsx
+++ b/data/retrieved/visualisation_sentiments_results.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahreb/Library/Mobile Documents/com~apple~CloudDocs/Desktop/university/masters/sose_2022/digitale_methoden/term_paper_AWS/dh-dm_sose2022_term_paper/data/retrieved/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7437BA3A-F233-F343-8B50-E09190A6D125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15B1BDC-F434-B845-B1C7-2B875900331A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" activeTab="1" xr2:uid="{8EFEA6EE-F305-4A45-9A31-371035ABC3EC}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" xr2:uid="{8EFEA6EE-F305-4A45-9A31-371035ABC3EC}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
-    <sheet name="pivot" sheetId="5" r:id="rId2"/>
+    <sheet name="results_visualisation" sheetId="6" r:id="rId2"/>
+    <sheet name="pivot" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">results!$D$1:$D$4078</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">results!$N:$N</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">results!$G:$G</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">results!$A:$A</definedName>
     <definedName name="_xlnm.Extract" localSheetId="0">results!$M:$M</definedName>
     <definedName name="sentiments" localSheetId="0">results!$A$1:$B$4078</definedName>
   </definedNames>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4116" uniqueCount="4106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4106" uniqueCount="4106">
   <si>
     <t>filename</t>
   </si>
@@ -12367,13 +12368,13 @@
     <t>Étiquettes de lignes</t>
   </si>
   <si>
-    <t xml:space="preserve">AWS-aw-018m.txt </t>
-  </si>
-  <si>
     <t>Number of texts with positive polarity</t>
   </si>
   <si>
     <t>Number of texts with negative polarity</t>
+  </si>
+  <si>
+    <t>sentiment</t>
   </si>
 </sst>
 </file>
@@ -12545,6 +12546,7 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:explosion val="8"/>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
@@ -12565,7 +12567,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-3ABF-5A4A-9DDE-E09812205CC4}"/>
+                <c16:uniqueId val="{00000001-C77C-6F42-B21A-FE0348188B41}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -12589,7 +12591,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-3ABF-5A4A-9DDE-E09812205CC4}"/>
+                <c16:uniqueId val="{00000003-C77C-6F42-B21A-FE0348188B41}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -12666,7 +12668,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(results!$G$5,results!$G$9)</c:f>
+              <c:f>(results_visualisation!$B$6,results_visualisation!$B$10)</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -12680,7 +12682,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(results!$H$5,results!$H$9)</c:f>
+              <c:f>(results_visualisation!$C$6,results_visualisation!$C$10)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -12695,7 +12697,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3ABF-5A4A-9DDE-E09812205CC4}"/>
+              <c16:uniqueId val="{00000004-C77C-6F42-B21A-FE0348188B41}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14411,27 +14413,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>25398</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>177799</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>84666</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>13449</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>249</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Graphique 2">
+        <xdr:cNvPr id="2" name="Graphique 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90AE446E-B3D1-55A2-6766-38ADE8FB1E2B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE930031-12EE-654A-AB68-F2E10434A0E9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -14751,8 +14755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66779354-CB64-6C43-84EC-979D90367D0D}">
   <dimension ref="A1:N4078"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14760,11 +14764,11 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
     <col min="2" max="2" width="22.6640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="20.83203125" customWidth="1"/>
-    <col min="7" max="7" width="37.1640625" customWidth="1"/>
+    <col min="7" max="7" width="20.5" customWidth="1"/>
     <col min="14" max="14" width="24.83203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14774,11 +14778,12 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>4105</v>
+      </c>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -14792,11 +14797,9 @@
         <f t="shared" ref="D2:D65" si="0">IF(B2&lt;0,"NEGATIVE","POSITIVE")</f>
         <v>POSITIVE</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -14810,11 +14813,9 @@
         <f t="shared" si="0"/>
         <v>POSITIVE</v>
       </c>
-      <c r="N3" s="5" t="s">
-        <v>4103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -14828,11 +14829,9 @@
         <f t="shared" si="0"/>
         <v>POSITIVE</v>
       </c>
-      <c r="N4" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>54</v>
       </c>
@@ -14846,18 +14845,9 @@
         <f t="shared" si="0"/>
         <v>POSITIVE</v>
       </c>
-      <c r="G5" t="s">
-        <v>4104</v>
-      </c>
-      <c r="H5">
-        <f>COUNTIF(B:B, "&gt;0")</f>
-        <v>3592</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -14871,11 +14861,9 @@
         <f t="shared" si="0"/>
         <v>POSITIVE</v>
       </c>
-      <c r="N6" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -14889,11 +14877,9 @@
         <f t="shared" si="0"/>
         <v>POSITIVE</v>
       </c>
-      <c r="N7" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>94</v>
       </c>
@@ -14907,11 +14893,9 @@
         <f t="shared" si="0"/>
         <v>POSITIVE</v>
       </c>
-      <c r="N8" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>100</v>
       </c>
@@ -14925,18 +14909,9 @@
         <f t="shared" si="0"/>
         <v>POSITIVE</v>
       </c>
-      <c r="G9" t="s">
-        <v>4105</v>
-      </c>
-      <c r="H9">
-        <f>COUNTIF(B:B, "&lt;=0")</f>
-        <v>485</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>178</v>
       </c>
@@ -14950,11 +14925,9 @@
         <f t="shared" si="0"/>
         <v>POSITIVE</v>
       </c>
-      <c r="N10" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>179</v>
       </c>
@@ -14968,11 +14941,9 @@
         <f t="shared" si="0"/>
         <v>POSITIVE</v>
       </c>
-      <c r="N11" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>180</v>
       </c>
@@ -14987,7 +14958,7 @@
         <v>POSITIVE</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>184</v>
       </c>
@@ -15002,7 +14973,7 @@
         <v>POSITIVE</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>237</v>
       </c>
@@ -15017,7 +14988,7 @@
         <v>POSITIVE</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>263</v>
       </c>
@@ -15032,7 +15003,7 @@
         <v>POSITIVE</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>268</v>
       </c>
@@ -75979,7 +75950,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D4078" xr:uid="{66779354-CB64-6C43-84EC-979D90367D0D}"/>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
@@ -75992,17 +75962,51 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43161728-7E48-CB4B-B985-293BDC57B4EB}">
+  <dimension ref="B6:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="37.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>4103</v>
+      </c>
+      <c r="C6">
+        <f>COUNTIF(results!B:B, "&gt;0")</f>
+        <v>3592</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>4104</v>
+      </c>
+      <c r="C10">
+        <f>COUNTIF(results!B:B, "&lt;=0")</f>
+        <v>485</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F68130-E6C6-834F-8C6A-02033E02AC4E}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
